--- a/Results/Datasets/Lotka_Volterra_Model.xlsx
+++ b/Results/Datasets/Lotka_Volterra_Model.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohwer Lab\Documents\GitHub\LysogenyModel\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohwer Lab\Documents\GitHub\LysogenyModel\Results\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76624D2D-5785-4921-8A8C-A04A4BEF28C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807E234E-E080-494F-B486-EACF501474C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{753C8F1A-6C97-403F-9863-F318792EAE94}"/>
   </bookViews>
@@ -397,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEDDFF3-787E-4AA4-9E54-EEFC72A2D7DA}">
   <dimension ref="A1:C803"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A649" workbookViewId="0">
+      <selection activeCell="A670" sqref="A670"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
